--- a/current-excel-manifests/IndividualAnimalMetadataTemplate.xlsx
+++ b/current-excel-manifests/IndividualAnimalMetadataTemplate.xlsx
@@ -97,7 +97,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="135">
   <si>
     <t>Component</t>
   </si>
@@ -300,157 +300,169 @@
     <t>B6.Clu</t>
   </si>
   <si>
-    <t>MSSM</t>
+    <t>Michigan University</t>
   </si>
   <si>
     <t>B6.Gfap-APOE4</t>
   </si>
   <si>
-    <t>NDRI</t>
+    <t>MSSM</t>
   </si>
   <si>
     <t>Bin1.B6</t>
   </si>
   <si>
-    <t>Newcastle</t>
+    <t>NDRI</t>
   </si>
   <si>
     <t>Bin1K358R_Aduci</t>
   </si>
   <si>
-    <t>NICHD</t>
+    <t>Newcastle</t>
   </si>
   <si>
     <t>BRI2-AB42</t>
   </si>
   <si>
-    <t>NIMH-HBCC</t>
+    <t>NICHD</t>
   </si>
   <si>
     <t>C57BL6J</t>
   </si>
   <si>
-    <t>Novogenix</t>
+    <t>NIMH-HBCC</t>
   </si>
   <si>
     <t>Cd2ap.B6</t>
   </si>
   <si>
-    <t>NYBB</t>
+    <t>Novogenix</t>
   </si>
   <si>
     <t>Ceacam1KO</t>
   </si>
   <si>
-    <t>Oxford</t>
+    <t>NYBB</t>
   </si>
   <si>
     <t>Clasp2L163PSNP</t>
   </si>
   <si>
-    <t>Penn</t>
+    <t>Oxford</t>
   </si>
   <si>
     <t>CRND8</t>
   </si>
   <si>
-    <t>PGP</t>
+    <t>Penn</t>
   </si>
   <si>
     <t>hAbetaKI</t>
   </si>
   <si>
-    <t>Pitt</t>
+    <t>PGP</t>
   </si>
   <si>
     <t>hAPPAPOE4Trem2R47H</t>
   </si>
   <si>
-    <t>Pritzker</t>
+    <t>Pitt</t>
   </si>
   <si>
     <t>hCR1KIAPOE4Trem2</t>
   </si>
   <si>
-    <t>Rush</t>
+    <t>Pritzker</t>
   </si>
   <si>
     <t>hTau</t>
   </si>
   <si>
-    <t>Sestan</t>
+    <t>Rush</t>
   </si>
   <si>
     <t>hTauTrem2</t>
   </si>
   <si>
-    <t>SMRI</t>
+    <t>Sestan</t>
   </si>
   <si>
     <t>Il1rapKO</t>
   </si>
   <si>
-    <t>StemExpress</t>
+    <t>SMRI</t>
   </si>
   <si>
     <t>Kif21bT82TSNP</t>
   </si>
   <si>
-    <t>TAA</t>
+    <t>StemExpress</t>
   </si>
   <si>
     <t>MAPT-P301K</t>
   </si>
   <si>
-    <t>UCI_TMF</t>
+    <t>TAA</t>
   </si>
   <si>
     <t>Meox2KOHET</t>
   </si>
   <si>
-    <t>UCSF</t>
+    <t>UCI_TMF</t>
   </si>
   <si>
     <t>MthfrC677TSNP</t>
   </si>
   <si>
-    <t>UM-BTB</t>
+    <t>UCSF</t>
   </si>
   <si>
     <t>Mtmr4V297GSNP</t>
   </si>
   <si>
-    <t>UW-CDL</t>
+    <t>UM-BTB</t>
   </si>
   <si>
     <t>PicalmH458R</t>
   </si>
   <si>
-    <t>Vaccarino</t>
+    <t>University of Florida</t>
   </si>
   <si>
     <t>Plcg2KO</t>
   </si>
   <si>
-    <t>XCell Science</t>
+    <t>University of Miami</t>
   </si>
   <si>
     <t>Plcg2M28LSNP</t>
   </si>
   <si>
-    <t>Yale</t>
+    <t>UW-CDL</t>
   </si>
   <si>
     <t>Plexin-B1-KO</t>
   </si>
   <si>
+    <t>Vaccarino</t>
+  </si>
+  <si>
     <t>rTg4510</t>
+  </si>
+  <si>
+    <t>Washington University</t>
   </si>
   <si>
     <t>Snx1D465NSNP</t>
   </si>
   <si>
+    <t>XCell Science</t>
+  </si>
+  <si>
     <t>Sorl1A528TSNP</t>
+  </si>
+  <si>
+    <t>Yale</t>
   </si>
   <si>
     <t>Spi1rs1377416</t>
@@ -27851,7 +27863,7 @@
   </sheetData>
   <dataValidations>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Choose one from dropdown" sqref="C2:C1000">
-      <formula1>Sheet2!$C$2:$C$45</formula1>
+      <formula1>Sheet2!$C$2:$C$49</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Choose one from dropdown" sqref="O2:O1000">
       <formula1>Sheet2!$O$2:$O$61</formula1>
@@ -28311,83 +28323,95 @@
       </c>
     </row>
     <row r="46">
-      <c r="O46" s="7" t="s">
+      <c r="C46" s="7" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="47">
-      <c r="O47" s="7" t="s">
+      <c r="O46" s="7" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="48">
-      <c r="O48" s="7" t="s">
+    <row r="47">
+      <c r="C47" s="7" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="49">
-      <c r="O49" s="7" t="s">
+      <c r="O47" s="7" t="s">
         <v>118</v>
       </c>
     </row>
+    <row r="48">
+      <c r="C48" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="O48" s="7" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="C49" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="O49" s="7" t="s">
+        <v>122</v>
+      </c>
+    </row>
     <row r="50">
       <c r="O50" s="7" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
     </row>
     <row r="51">
       <c r="O51" s="7" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
     </row>
     <row r="52">
       <c r="O52" s="7" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
     </row>
     <row r="53">
       <c r="O53" s="7" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
     </row>
     <row r="54">
       <c r="O54" s="7" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
     </row>
     <row r="55">
       <c r="O55" s="7" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
     </row>
     <row r="56">
       <c r="O56" s="7" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
     </row>
     <row r="57">
       <c r="O57" s="7" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
     </row>
     <row r="58">
       <c r="O58" s="7" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
     </row>
     <row r="59">
       <c r="O59" s="7" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
     </row>
     <row r="60">
       <c r="O60" s="7" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
     </row>
     <row r="61">
       <c r="O61" s="7" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
     </row>
   </sheetData>

--- a/current-excel-manifests/IndividualAnimalMetadataTemplate.xlsx
+++ b/current-excel-manifests/IndividualAnimalMetadataTemplate.xlsx
@@ -97,7 +97,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="136">
   <si>
     <t>Component</t>
   </si>
@@ -312,160 +312,163 @@
     <t>Bin1.B6</t>
   </si>
   <si>
-    <t>NDRI</t>
+    <t>NACC</t>
   </si>
   <si>
     <t>Bin1K358R_Aduci</t>
   </si>
   <si>
-    <t>Newcastle</t>
+    <t>NDRI</t>
   </si>
   <si>
     <t>BRI2-AB42</t>
   </si>
   <si>
-    <t>NICHD</t>
+    <t>Newcastle</t>
   </si>
   <si>
     <t>C57BL6J</t>
   </si>
   <si>
-    <t>NIMH-HBCC</t>
+    <t>NICHD</t>
   </si>
   <si>
     <t>Cd2ap.B6</t>
   </si>
   <si>
-    <t>Novogenix</t>
+    <t>NIMH-HBCC</t>
   </si>
   <si>
     <t>Ceacam1KO</t>
   </si>
   <si>
-    <t>NYBB</t>
+    <t>Novogenix</t>
   </si>
   <si>
     <t>Clasp2L163PSNP</t>
   </si>
   <si>
-    <t>Oxford</t>
+    <t>NYBB</t>
   </si>
   <si>
     <t>CRND8</t>
   </si>
   <si>
-    <t>Penn</t>
+    <t>Oxford</t>
   </si>
   <si>
     <t>hAbetaKI</t>
   </si>
   <si>
-    <t>PGP</t>
+    <t>Penn</t>
   </si>
   <si>
     <t>hAPPAPOE4Trem2R47H</t>
   </si>
   <si>
-    <t>Pitt</t>
+    <t>PGP</t>
   </si>
   <si>
     <t>hCR1KIAPOE4Trem2</t>
   </si>
   <si>
-    <t>Pritzker</t>
+    <t>Pitt</t>
   </si>
   <si>
     <t>hTau</t>
   </si>
   <si>
-    <t>Rush</t>
+    <t>Pritzker</t>
   </si>
   <si>
     <t>hTauTrem2</t>
   </si>
   <si>
-    <t>Sestan</t>
+    <t>Rush</t>
   </si>
   <si>
     <t>Il1rapKO</t>
   </si>
   <si>
-    <t>SMRI</t>
+    <t>Sestan</t>
   </si>
   <si>
     <t>Kif21bT82TSNP</t>
   </si>
   <si>
-    <t>StemExpress</t>
+    <t>SMRI</t>
   </si>
   <si>
     <t>MAPT-P301K</t>
   </si>
   <si>
-    <t>TAA</t>
+    <t>StemExpress</t>
   </si>
   <si>
     <t>Meox2KOHET</t>
   </si>
   <si>
-    <t>UCI_TMF</t>
+    <t>TAA</t>
   </si>
   <si>
     <t>MthfrC677TSNP</t>
   </si>
   <si>
-    <t>UCSF</t>
+    <t>UCI_TMF</t>
   </si>
   <si>
     <t>Mtmr4V297GSNP</t>
   </si>
   <si>
-    <t>UM-BTB</t>
+    <t>UCSF</t>
   </si>
   <si>
     <t>PicalmH458R</t>
   </si>
   <si>
-    <t>University of Florida</t>
+    <t>UM-BTB</t>
   </si>
   <si>
     <t>Plcg2KO</t>
   </si>
   <si>
-    <t>University of Miami</t>
+    <t>University of Florida</t>
   </si>
   <si>
     <t>Plcg2M28LSNP</t>
   </si>
   <si>
-    <t>UW-CDL</t>
+    <t>University of Miami</t>
   </si>
   <si>
     <t>Plexin-B1-KO</t>
   </si>
   <si>
-    <t>Vaccarino</t>
+    <t>UW-CDL</t>
   </si>
   <si>
     <t>rTg4510</t>
   </si>
   <si>
-    <t>Washington University</t>
+    <t>Vaccarino</t>
   </si>
   <si>
     <t>Snx1D465NSNP</t>
   </si>
   <si>
-    <t>XCell Science</t>
+    <t>Washington University</t>
   </si>
   <si>
     <t>Sorl1A528TSNP</t>
   </si>
   <si>
-    <t>Yale</t>
+    <t>XCell Science</t>
   </si>
   <si>
     <t>Spi1rs1377416</t>
+  </si>
+  <si>
+    <t>Yale</t>
   </si>
   <si>
     <t>TAUPS19</t>
@@ -27862,14 +27865,14 @@
     </row>
   </sheetData>
   <dataValidations>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Choose one from dropdown" sqref="C2:C1000">
-      <formula1>Sheet2!$C$2:$C$49</formula1>
-    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Choose one from dropdown" sqref="O2:O1000">
       <formula1>Sheet2!$O$2:$O$61</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Choose one from dropdown" sqref="H2:H1000">
       <formula1>Sheet2!$H$2:$H$4</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Choose one from dropdown" sqref="C2:C1000">
+      <formula1>Sheet2!$C$2:$C$50</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Choose one from dropdown" sqref="D2:D1000">
       <formula1>Sheet2!$D$2:$D$9</formula1>
@@ -28355,63 +28358,66 @@
       </c>
     </row>
     <row r="50">
-      <c r="O50" s="7" t="s">
+      <c r="C50" s="7" t="s">
         <v>123</v>
       </c>
+      <c r="O50" s="7" t="s">
+        <v>124</v>
+      </c>
     </row>
     <row r="51">
       <c r="O51" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="52">
       <c r="O52" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="53">
       <c r="O53" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="54">
       <c r="O54" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="55">
       <c r="O55" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="56">
       <c r="O56" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="57">
       <c r="O57" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="58">
       <c r="O58" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="59">
       <c r="O59" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="60">
       <c r="O60" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="61">
       <c r="O61" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
   </sheetData>

--- a/current-excel-manifests/IndividualAnimalMetadataTemplate.xlsx
+++ b/current-excel-manifests/IndividualAnimalMetadataTemplate.xlsx
@@ -3,8 +3,8 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <workbookPr/>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
-    <sheet state="hidden" name="Sheet2" sheetId="2" r:id="rId5"/>
+    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId5"/>
+    <sheet state="hidden" name="Sheet2" sheetId="2" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -608,6 +608,10 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<x18tc:personList xmlns:x18tc="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
   <a:themeElements>
